--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H2">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I2">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J2">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>448.3165188423638</v>
+        <v>456.8378662570379</v>
       </c>
       <c r="R2">
-        <v>448.3165188423638</v>
+        <v>1827.351465028152</v>
       </c>
       <c r="S2">
-        <v>0.05364750019097823</v>
+        <v>0.04985591509293671</v>
       </c>
       <c r="T2">
-        <v>0.05364750019097823</v>
+        <v>0.03187298610533316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H3">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I3">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J3">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>54.91556410654591</v>
+        <v>57.23649532428099</v>
       </c>
       <c r="R3">
-        <v>54.91556410654591</v>
+        <v>343.4189719456859</v>
       </c>
       <c r="S3">
-        <v>0.006571434716483187</v>
+        <v>0.00624636892402231</v>
       </c>
       <c r="T3">
-        <v>0.006571434716483187</v>
+        <v>0.005989974195229059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H4">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I4">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J4">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>181.2170245531742</v>
+        <v>18.63821014794433</v>
       </c>
       <c r="R4">
-        <v>181.2170245531742</v>
+        <v>111.829260887666</v>
       </c>
       <c r="S4">
-        <v>0.02168521558034156</v>
+        <v>0.002034036780342984</v>
       </c>
       <c r="T4">
-        <v>0.02168521558034156</v>
+        <v>0.001950545664945382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.22260545332119</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H5">
-        <v>66.22260545332119</v>
+        <v>133.683746</v>
       </c>
       <c r="I5">
-        <v>0.08832243167187816</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J5">
-        <v>0.08832243167187816</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P5">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q5">
-        <v>53.63570468619731</v>
+        <v>3.618172866114333</v>
       </c>
       <c r="R5">
-        <v>53.63570468619731</v>
+        <v>21.709037196686</v>
       </c>
       <c r="S5">
-        <v>0.006418281184075164</v>
+        <v>0.0003948606990101592</v>
       </c>
       <c r="T5">
-        <v>0.006418281184075164</v>
+        <v>0.000378652850407994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>153.923807472541</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H6">
-        <v>153.923807472541</v>
+        <v>133.683746</v>
       </c>
       <c r="I6">
-        <v>0.2052913030996883</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J6">
-        <v>0.2052913030996883</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N6">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O6">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P6">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q6">
-        <v>1042.039724361087</v>
+        <v>197.124102924903</v>
       </c>
       <c r="R6">
-        <v>1042.039724361087</v>
+        <v>1182.744617549418</v>
       </c>
       <c r="S6">
-        <v>0.1246949955268651</v>
+        <v>0.02151267060831973</v>
       </c>
       <c r="T6">
-        <v>0.1246949955268651</v>
+        <v>0.02062963993668805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>153.923807472541</v>
+        <v>66.84187299999999</v>
       </c>
       <c r="H7">
-        <v>153.923807472541</v>
+        <v>133.683746</v>
       </c>
       <c r="I7">
-        <v>0.2052913030996883</v>
+        <v>0.08595451855501718</v>
       </c>
       <c r="J7">
-        <v>0.2052913030996883</v>
+        <v>0.0646004996207997</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N7">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O7">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P7">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q7">
-        <v>127.6424063794976</v>
+        <v>54.1603989078845</v>
       </c>
       <c r="R7">
-        <v>127.6424063794976</v>
+        <v>216.641595631538</v>
       </c>
       <c r="S7">
-        <v>0.01527424427345</v>
+        <v>0.00591066645038528</v>
       </c>
       <c r="T7">
-        <v>0.01527424427345</v>
+        <v>0.003778700868196057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H8">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I8">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J8">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N8">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O8">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P8">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q8">
-        <v>421.2098603962524</v>
+        <v>1119.84366605127</v>
       </c>
       <c r="R8">
-        <v>421.2098603962524</v>
+        <v>6719.061996307621</v>
       </c>
       <c r="S8">
-        <v>0.0504037998073306</v>
+        <v>0.1222114777600378</v>
       </c>
       <c r="T8">
-        <v>0.0504037998073306</v>
+        <v>0.117195062771291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>153.923807472541</v>
+        <v>163.849045</v>
       </c>
       <c r="H9">
-        <v>153.923807472541</v>
+        <v>491.547135</v>
       </c>
       <c r="I9">
-        <v>0.2052913030996883</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J9">
-        <v>0.2052913030996883</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N9">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O9">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P9">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q9">
-        <v>124.6675787709929</v>
+        <v>140.303445686365</v>
       </c>
       <c r="R9">
-        <v>124.6675787709929</v>
+        <v>1262.731011177285</v>
       </c>
       <c r="S9">
-        <v>0.01491826349204253</v>
+        <v>0.01531168318575892</v>
       </c>
       <c r="T9">
-        <v>0.01491826349204253</v>
+        <v>0.02202477670238815</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>125.808400368787</v>
+        <v>163.849045</v>
       </c>
       <c r="H10">
-        <v>125.808400368787</v>
+        <v>491.547135</v>
       </c>
       <c r="I10">
-        <v>0.1677932145565137</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J10">
-        <v>0.1677932145565137</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N10">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O10">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P10">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q10">
-        <v>851.7028846625104</v>
+        <v>45.68772232414834</v>
       </c>
       <c r="R10">
-        <v>851.7028846625104</v>
+        <v>411.1895009173351</v>
       </c>
       <c r="S10">
-        <v>0.1019184632892253</v>
+        <v>0.004986021022392247</v>
       </c>
       <c r="T10">
-        <v>0.1019184632892253</v>
+        <v>0.007172039698009156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>125.808400368787</v>
+        <v>163.849045</v>
       </c>
       <c r="H11">
-        <v>125.808400368787</v>
+        <v>491.547135</v>
       </c>
       <c r="I11">
-        <v>0.1677932145565137</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J11">
-        <v>0.1677932145565137</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N11">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O11">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P11">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q11">
-        <v>104.327506118194</v>
+        <v>8.869203422198336</v>
       </c>
       <c r="R11">
-        <v>104.327506118194</v>
+        <v>79.82283079978501</v>
       </c>
       <c r="S11">
-        <v>0.01248428212918041</v>
+        <v>0.0009679194423658214</v>
       </c>
       <c r="T11">
-        <v>0.01248428212918041</v>
+        <v>0.001392283874044292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>125.808400368787</v>
+        <v>163.849045</v>
       </c>
       <c r="H12">
-        <v>125.808400368787</v>
+        <v>491.547135</v>
       </c>
       <c r="I12">
-        <v>0.1677932145565137</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J12">
-        <v>0.1677932145565137</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N12">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O12">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P12">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q12">
-        <v>344.2725308459251</v>
+        <v>483.2090209489951</v>
       </c>
       <c r="R12">
-        <v>344.2725308459251</v>
+        <v>4348.881188540956</v>
       </c>
       <c r="S12">
-        <v>0.04119714507062248</v>
+        <v>0.05273386840271155</v>
       </c>
       <c r="T12">
-        <v>0.04119714507062248</v>
+        <v>0.07585395166111365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>125.808400368787</v>
+        <v>163.849045</v>
       </c>
       <c r="H13">
-        <v>125.808400368787</v>
+        <v>491.547135</v>
       </c>
       <c r="I13">
-        <v>0.1677932145565137</v>
+        <v>0.2106997477266137</v>
       </c>
       <c r="J13">
-        <v>0.1677932145565137</v>
+        <v>0.2375321716985151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.809930450773398</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N13">
-        <v>0.809930450773398</v>
+        <v>1.620553</v>
       </c>
       <c r="O13">
-        <v>0.07266875540654688</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P13">
-        <v>0.07266875540654688</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q13">
-        <v>101.8960544217718</v>
+        <v>132.7630307109425</v>
       </c>
       <c r="R13">
-        <v>101.8960544217718</v>
+        <v>796.5781842656551</v>
       </c>
       <c r="S13">
-        <v>0.01219332406748554</v>
+        <v>0.01448877791334735</v>
       </c>
       <c r="T13">
-        <v>0.01219332406748554</v>
+        <v>0.01389405699166887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>137.851315029753</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H14">
-        <v>137.851315029753</v>
+        <v>379.827271</v>
       </c>
       <c r="I14">
-        <v>0.1838550940309355</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J14">
-        <v>0.1838550940309355</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N14">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O14">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P14">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q14">
-        <v>933.2315037882802</v>
+        <v>865.3232484467419</v>
       </c>
       <c r="R14">
-        <v>933.2315037882802</v>
+        <v>5191.939490680452</v>
       </c>
       <c r="S14">
-        <v>0.1116745316612181</v>
+        <v>0.09443499672207901</v>
       </c>
       <c r="T14">
-        <v>0.1116745316612181</v>
+        <v>0.09055872305530407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>137.851315029753</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H15">
-        <v>137.851315029753</v>
+        <v>379.827271</v>
       </c>
       <c r="I15">
-        <v>0.1838550940309355</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J15">
-        <v>0.1838550940309355</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N15">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O15">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P15">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q15">
-        <v>114.3141783061391</v>
+        <v>108.4149842251623</v>
       </c>
       <c r="R15">
-        <v>114.3141783061391</v>
+        <v>975.7348580264609</v>
       </c>
       <c r="S15">
-        <v>0.01367933066206394</v>
+        <v>0.01183161171077398</v>
       </c>
       <c r="T15">
-        <v>0.01367933066206394</v>
+        <v>0.01701893925035789</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>137.851315029753</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H16">
-        <v>137.851315029753</v>
+        <v>379.827271</v>
       </c>
       <c r="I16">
-        <v>0.1838550940309355</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J16">
-        <v>0.1838550940309355</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N16">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O16">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P16">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q16">
-        <v>377.2277603611149</v>
+        <v>35.30372095157678</v>
       </c>
       <c r="R16">
-        <v>377.2277603611149</v>
+        <v>317.733488564191</v>
       </c>
       <c r="S16">
-        <v>0.04514071084927166</v>
+        <v>0.003852787704853324</v>
       </c>
       <c r="T16">
-        <v>0.04514071084927166</v>
+        <v>0.005541963470092206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>137.851315029753</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H17">
-        <v>137.851315029753</v>
+        <v>379.827271</v>
       </c>
       <c r="I17">
-        <v>0.1838550940309355</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J17">
-        <v>0.1838550940309355</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N17">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O17">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P17">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q17">
-        <v>111.6499777217535</v>
+        <v>6.853392262773444</v>
       </c>
       <c r="R17">
-        <v>111.6499777217535</v>
+        <v>61.680530364961</v>
       </c>
       <c r="S17">
-        <v>0.01336052085838173</v>
+        <v>0.0007479286810239505</v>
       </c>
       <c r="T17">
-        <v>0.01336052085838173</v>
+        <v>0.001075842674447795</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.06758729234571</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H18">
-        <v>77.06758729234571</v>
+        <v>379.827271</v>
       </c>
       <c r="I18">
-        <v>0.1027866038515</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J18">
-        <v>0.1027866038515</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N18">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O18">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P18">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q18">
-        <v>521.735323066357</v>
+        <v>373.384261002027</v>
       </c>
       <c r="R18">
-        <v>521.735323066357</v>
+        <v>3360.458349018243</v>
       </c>
       <c r="S18">
-        <v>0.06243311291789404</v>
+        <v>0.04074840416814769</v>
       </c>
       <c r="T18">
-        <v>0.06243311291789404</v>
+        <v>0.05861370640275772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.06758729234571</v>
+        <v>126.6090903333333</v>
       </c>
       <c r="H19">
-        <v>77.06758729234571</v>
+        <v>379.827271</v>
       </c>
       <c r="I19">
-        <v>0.1027866038515</v>
+        <v>0.1628114670618274</v>
       </c>
       <c r="J19">
-        <v>0.1027866038515</v>
+        <v>0.1835453614249027</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N19">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O19">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P19">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q19">
-        <v>63.90884202635038</v>
+        <v>102.5883705834772</v>
       </c>
       <c r="R19">
-        <v>63.90884202635038</v>
+        <v>615.530223500863</v>
       </c>
       <c r="S19">
-        <v>0.007647609380236487</v>
+        <v>0.01119573807494941</v>
       </c>
       <c r="T19">
-        <v>0.007647609380236487</v>
+        <v>0.01073618657194301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.06758729234571</v>
+        <v>138.332156</v>
       </c>
       <c r="H20">
-        <v>77.06758729234571</v>
+        <v>414.996468</v>
       </c>
       <c r="I20">
-        <v>0.1027866038515</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J20">
-        <v>0.1027866038515</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N20">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O20">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P20">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q20">
-        <v>210.8941314375677</v>
+        <v>945.445783390536</v>
       </c>
       <c r="R20">
-        <v>210.8941314375677</v>
+        <v>5672.674700343216</v>
       </c>
       <c r="S20">
-        <v>0.02523650697901517</v>
+        <v>0.1031789792030345</v>
       </c>
       <c r="T20">
-        <v>0.02523650697901517</v>
+        <v>0.09894379125437087</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.06758729234571</v>
+        <v>138.332156</v>
       </c>
       <c r="H21">
-        <v>77.06758729234571</v>
+        <v>414.996468</v>
       </c>
       <c r="I21">
-        <v>0.1027866038515</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J21">
-        <v>0.1027866038515</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.809930450773398</v>
+        <v>0.856297</v>
       </c>
       <c r="N21">
-        <v>0.809930450773398</v>
+        <v>2.568891</v>
       </c>
       <c r="O21">
-        <v>0.07266875540654688</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P21">
-        <v>0.07266875540654688</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q21">
-        <v>62.41938571570775</v>
+        <v>118.453410186332</v>
       </c>
       <c r="R21">
-        <v>62.41938571570775</v>
+        <v>1066.080691676988</v>
       </c>
       <c r="S21">
-        <v>0.007469374574354283</v>
+        <v>0.01292713147687239</v>
       </c>
       <c r="T21">
-        <v>0.007469374574354283</v>
+        <v>0.0185947671935465</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>188.908691862036</v>
+        <v>138.332156</v>
       </c>
       <c r="H22">
-        <v>188.908691862036</v>
+        <v>414.996468</v>
       </c>
       <c r="I22">
-        <v>0.2519513527894844</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J22">
-        <v>0.2519513527894844</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>6.7698411407019</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N22">
-        <v>6.7698411407019</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O22">
-        <v>0.6074051537697821</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P22">
-        <v>0.6074051537697821</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q22">
-        <v>1278.88183400379</v>
+        <v>38.57258448975867</v>
       </c>
       <c r="R22">
-        <v>1278.88183400379</v>
+        <v>347.153260407828</v>
       </c>
       <c r="S22">
-        <v>0.1530365501836014</v>
+        <v>0.004209527360314146</v>
       </c>
       <c r="T22">
-        <v>0.1530365501836014</v>
+        <v>0.006055108312307805</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>188.908691862036</v>
+        <v>138.332156</v>
       </c>
       <c r="H23">
-        <v>188.908691862036</v>
+        <v>414.996468</v>
       </c>
       <c r="I23">
-        <v>0.2519513527894844</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J23">
-        <v>0.2519513527894844</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.829257075142636</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N23">
-        <v>0.829257075142636</v>
+        <v>0.162391</v>
       </c>
       <c r="O23">
-        <v>0.07440278298605235</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P23">
-        <v>0.07440278298605235</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q23">
-        <v>156.6538692825335</v>
+        <v>7.487965714998666</v>
       </c>
       <c r="R23">
-        <v>156.6538692825335</v>
+        <v>67.391691434988</v>
       </c>
       <c r="S23">
-        <v>0.01874588182463832</v>
+        <v>0.0008171813469940078</v>
       </c>
       <c r="T23">
-        <v>0.01874588182463832</v>
+        <v>0.001175457751740813</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>188.908691862036</v>
+        <v>138.332156</v>
       </c>
       <c r="H24">
-        <v>188.908691862036</v>
+        <v>414.996468</v>
       </c>
       <c r="I24">
-        <v>0.2519513527894844</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J24">
-        <v>0.2519513527894844</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.73648285676271</v>
+        <v>2.949111</v>
       </c>
       <c r="N24">
-        <v>2.73648285676271</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O24">
-        <v>0.2455233078376184</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P24">
-        <v>0.2455233078376184</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q24">
-        <v>516.9453967739308</v>
+        <v>407.956882913316</v>
       </c>
       <c r="R24">
-        <v>516.9453967739308</v>
+        <v>3671.611946219844</v>
       </c>
       <c r="S24">
-        <v>0.06185992955103698</v>
+        <v>0.04452140511632133</v>
       </c>
       <c r="T24">
-        <v>0.06185992955103698</v>
+        <v>0.06404090224878413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>188.908691862036</v>
+        <v>138.332156</v>
       </c>
       <c r="H25">
-        <v>188.908691862036</v>
+        <v>414.996468</v>
       </c>
       <c r="I25">
-        <v>0.2519513527894844</v>
+        <v>0.1778866051473084</v>
       </c>
       <c r="J25">
-        <v>0.2519513527894844</v>
+        <v>0.2005403048300817</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.809930450773398</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N25">
-        <v>0.809930450773398</v>
+        <v>1.620553</v>
       </c>
       <c r="O25">
-        <v>0.07266875540654688</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P25">
-        <v>0.07266875540654688</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q25">
-        <v>153.0029019548317</v>
+        <v>112.087295201134</v>
       </c>
       <c r="R25">
-        <v>153.0029019548317</v>
+        <v>672.5237712068041</v>
       </c>
       <c r="S25">
-        <v>0.01830899123020764</v>
+        <v>0.01223238064377195</v>
       </c>
       <c r="T25">
-        <v>0.01830899123020764</v>
+        <v>0.01173027806933161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>85.31685533333332</v>
+      </c>
+      <c r="H26">
+        <v>255.950566</v>
+      </c>
+      <c r="I26">
+        <v>0.1097122042765725</v>
+      </c>
+      <c r="J26">
+        <v>0.1236839551296421</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.834606</v>
+      </c>
+      <c r="N26">
+        <v>13.669212</v>
+      </c>
+      <c r="O26">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P26">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q26">
+        <v>583.107091362332</v>
+      </c>
+      <c r="R26">
+        <v>3498.642548173992</v>
+      </c>
+      <c r="S26">
+        <v>0.06363600696071206</v>
+      </c>
+      <c r="T26">
+        <v>0.06102393954288323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>85.31685533333332</v>
+      </c>
+      <c r="H27">
+        <v>255.950566</v>
+      </c>
+      <c r="I27">
+        <v>0.1097122042765725</v>
+      </c>
+      <c r="J27">
+        <v>0.1236839551296421</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.856297</v>
+      </c>
+      <c r="N27">
+        <v>2.568891</v>
+      </c>
+      <c r="O27">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P27">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q27">
+        <v>73.05656727136733</v>
+      </c>
+      <c r="R27">
+        <v>657.5091054423059</v>
+      </c>
+      <c r="S27">
+        <v>0.007972854887675582</v>
+      </c>
+      <c r="T27">
+        <v>0.01146838962452677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>85.31685533333332</v>
+      </c>
+      <c r="H28">
+        <v>255.950566</v>
+      </c>
+      <c r="I28">
+        <v>0.1097122042765725</v>
+      </c>
+      <c r="J28">
+        <v>0.1236839551296421</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P28">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q28">
+        <v>23.78978038009844</v>
+      </c>
+      <c r="R28">
+        <v>214.108023420886</v>
+      </c>
+      <c r="S28">
+        <v>0.002596241157563036</v>
+      </c>
+      <c r="T28">
+        <v>0.003734509855458546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>85.31685533333332</v>
+      </c>
+      <c r="H29">
+        <v>255.950566</v>
+      </c>
+      <c r="I29">
+        <v>0.1097122042765725</v>
+      </c>
+      <c r="J29">
+        <v>0.1236839551296421</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.162391</v>
+      </c>
+      <c r="O29">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P29">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q29">
+        <v>4.618229818145111</v>
+      </c>
+      <c r="R29">
+        <v>41.564068363306</v>
+      </c>
+      <c r="S29">
+        <v>0.0005039995383472967</v>
+      </c>
+      <c r="T29">
+        <v>0.0007249678010925832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>85.31685533333332</v>
+      </c>
+      <c r="H30">
+        <v>255.950566</v>
+      </c>
+      <c r="I30">
+        <v>0.1097122042765725</v>
+      </c>
+      <c r="J30">
+        <v>0.1236839551296421</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.949111</v>
+      </c>
+      <c r="N30">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P30">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q30">
+        <v>251.608876548942</v>
+      </c>
+      <c r="R30">
+        <v>2264.479888940478</v>
+      </c>
+      <c r="S30">
+        <v>0.02745873692264229</v>
+      </c>
+      <c r="T30">
+        <v>0.03949745706685621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>85.31685533333332</v>
+      </c>
+      <c r="H31">
+        <v>255.950566</v>
+      </c>
+      <c r="I31">
+        <v>0.1097122042765725</v>
+      </c>
+      <c r="J31">
+        <v>0.1236839551296421</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.620553</v>
+      </c>
+      <c r="O31">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P31">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q31">
+        <v>69.13024293049966</v>
+      </c>
+      <c r="R31">
+        <v>414.781457582998</v>
+      </c>
+      <c r="S31">
+        <v>0.007544364809632246</v>
+      </c>
+      <c r="T31">
+        <v>0.007234691238824744</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>196.693321</v>
+      </c>
+      <c r="H32">
+        <v>393.386642</v>
+      </c>
+      <c r="I32">
+        <v>0.2529354572326609</v>
+      </c>
+      <c r="J32">
+        <v>0.1900977072960588</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.834606</v>
+      </c>
+      <c r="N32">
+        <v>13.669212</v>
+      </c>
+      <c r="O32">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P32">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q32">
+        <v>1344.321351866526</v>
+      </c>
+      <c r="R32">
+        <v>5377.285407466104</v>
+      </c>
+      <c r="S32">
+        <v>0.1467093166453272</v>
+      </c>
+      <c r="T32">
+        <v>0.09379155918094688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>196.693321</v>
+      </c>
+      <c r="H33">
+        <v>393.386642</v>
+      </c>
+      <c r="I33">
+        <v>0.2529354572326609</v>
+      </c>
+      <c r="J33">
+        <v>0.1900977072960588</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.856297</v>
+      </c>
+      <c r="N33">
+        <v>2.568891</v>
+      </c>
+      <c r="O33">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P33">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q33">
+        <v>168.427900692337</v>
+      </c>
+      <c r="R33">
+        <v>1010.567404154022</v>
+      </c>
+      <c r="S33">
+        <v>0.01838097875948427</v>
+      </c>
+      <c r="T33">
+        <v>0.01762649465498829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>196.693321</v>
+      </c>
+      <c r="H34">
+        <v>393.386642</v>
+      </c>
+      <c r="I34">
+        <v>0.2529354572326609</v>
+      </c>
+      <c r="J34">
+        <v>0.1900977072960588</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P34">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q34">
+        <v>54.84603119208034</v>
+      </c>
+      <c r="R34">
+        <v>329.076187152482</v>
+      </c>
+      <c r="S34">
+        <v>0.005985491300667309</v>
+      </c>
+      <c r="T34">
+        <v>0.005739804816664257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>196.693321</v>
+      </c>
+      <c r="H35">
+        <v>393.386642</v>
+      </c>
+      <c r="I35">
+        <v>0.2529354572326609</v>
+      </c>
+      <c r="J35">
+        <v>0.1900977072960588</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.162391</v>
+      </c>
+      <c r="O35">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P35">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q35">
+        <v>10.64707503017033</v>
+      </c>
+      <c r="R35">
+        <v>63.882450181022</v>
+      </c>
+      <c r="S35">
+        <v>0.001161943236101263</v>
+      </c>
+      <c r="T35">
+        <v>0.00111424894770475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>196.693321</v>
+      </c>
+      <c r="H36">
+        <v>393.386642</v>
+      </c>
+      <c r="I36">
+        <v>0.2529354572326609</v>
+      </c>
+      <c r="J36">
+        <v>0.1900977072960588</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.949111</v>
+      </c>
+      <c r="N36">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P36">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q36">
+        <v>580.0704365876311</v>
+      </c>
+      <c r="R36">
+        <v>3480.422619525786</v>
+      </c>
+      <c r="S36">
+        <v>0.06330460885692864</v>
+      </c>
+      <c r="T36">
+        <v>0.06070614433831624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>196.693321</v>
+      </c>
+      <c r="H37">
+        <v>393.386642</v>
+      </c>
+      <c r="I37">
+        <v>0.2529354572326609</v>
+      </c>
+      <c r="J37">
+        <v>0.1900977072960588</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N37">
+        <v>1.620553</v>
+      </c>
+      <c r="O37">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P37">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q37">
+        <v>159.3759757132565</v>
+      </c>
+      <c r="R37">
+        <v>637.503902853026</v>
+      </c>
+      <c r="S37">
+        <v>0.01739311843415223</v>
+      </c>
+      <c r="T37">
+        <v>0.01111945535743838</v>
       </c>
     </row>
   </sheetData>
